--- a/SourceCode/2024/Feb 2024/Anusha k/Task22/excel.xlsx
+++ b/SourceCode/2024/Feb 2024/Anusha k/Task22/excel.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e07be0ad463409e5/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Anusha k/Task22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC1048B4291E6F785BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E109CDDE-8EE5-4573-A437-E09331D9C009}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048B4291E6F785BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35D3DA3-3ED8-4281-B132-17984084153C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>names</t>
-  </si>
-  <si>
-    <t>anusha</t>
-  </si>
-  <si>
-    <t>sirisha</t>
-  </si>
-  <si>
-    <t>sravani</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>mahendra</t>
   </si>
@@ -48,7 +37,10 @@
     <t>syed farhan</t>
   </si>
   <si>
-    <t>u_names</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>u_name</t>
   </si>
   <si>
     <t>status</t>
@@ -111,6 +103,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,48 +388,68 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>